--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10162,118 +10162,122 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>XNN</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Xining, China</t>
+          <t>Da Nang, Vietnam</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Xining</t>
+          <t>Da Nang</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>16.02636</v>
+      </c>
+      <c r="H260" t="n">
+        <v>108.20869</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>JXG</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Da Nang, Vietnam</t>
+          <t>Jiaxing, China</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Jiaxing</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="G261" t="n">
-        <v>16.02636</v>
-      </c>
-      <c r="H261" t="n">
-        <v>108.20869</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>JXG</t>
+          <t>CRK</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Jiaxing, China</t>
+          <t>Tarlac City, Philippines</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Jiaxing</t>
+          <t>Tarlac City</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>15.1859</v>
+      </c>
+      <c r="H262" t="n">
+        <v>120.5599</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>CRK</t>
+          <t>PBH</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tarlac City, Philippines</t>
+          <t>Thimphu, Bhutan</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10283,73 +10287,69 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Tarlac City</t>
+          <t>Thimphu</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>BT</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>15.1859</v>
+        <v>27.4712</v>
       </c>
       <c r="H263" t="n">
-        <v>120.5599</v>
+        <v>89.6339</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>PBH</t>
+          <t>XIY</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Thimphu, Bhutan</t>
+          <t>Baoji, China</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Thimphu</t>
+          <t>Baoji</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>BT</t>
-        </is>
-      </c>
-      <c r="G264" t="n">
-        <v>27.4712</v>
-      </c>
-      <c r="H264" t="n">
-        <v>89.6339</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>XIY</t>
+          <t>CTU</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Baoji, China</t>
+          <t>Chengdu, China</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Baoji</t>
+          <t>Chengdu</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -10378,118 +10378,122 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>CTU</t>
+          <t>NQZ</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Chengdu, China</t>
+          <t>Astana, Kazakhstan</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Chengdu</t>
+          <t>Astana</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>51.167801</v>
+      </c>
+      <c r="H266" t="n">
+        <v>71.418893</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>NQZ</t>
+          <t>NNG</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Astana, Kazakhstan</t>
+          <t>Nanning, China</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Nanning</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="G267" t="n">
-        <v>51.167801</v>
-      </c>
-      <c r="H267" t="n">
-        <v>71.418893</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>KCH</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Nanning, China</t>
+          <t>Kuching, Malaysia</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Nanning</t>
+          <t>Kuching</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+          <t>MY</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>1.709727</v>
+      </c>
+      <c r="H268" t="n">
+        <v>110.353455</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>AKX</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Kuching, Malaysia</t>
+          <t>Aktobe, Kazakhstan</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10499,107 +10503,107 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Kuching</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.709727</v>
+        <v>50.286922</v>
       </c>
       <c r="H269" t="n">
-        <v>110.353455</v>
+        <v>57.224121</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>AKX</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Aktobe, Kazakhstan</t>
+          <t>Tongren, China</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Tongren</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>50.286922</v>
-      </c>
-      <c r="H270" t="n">
-        <v>57.224121</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tongren, China</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Tongren</t>
+          <t>Ashburn</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>38.94449997</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-77.45580292</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10609,7 +10613,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10623,21 +10627,21 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>38.94449997</v>
+        <v>33.6366996765</v>
       </c>
       <c r="H272" t="n">
-        <v>-77.45580292</v>
+        <v>-84.4281005859</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10647,7 +10651,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10661,21 +10665,21 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>33.6366996765</v>
+        <v>42.36429977</v>
       </c>
       <c r="H273" t="n">
-        <v>-84.4281005859</v>
+        <v>-71.00520324999999</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10685,7 +10689,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10699,21 +10703,21 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>42.36429977</v>
+        <v>42.94049835</v>
       </c>
       <c r="H274" t="n">
-        <v>-71.00520324999999</v>
+        <v>-78.73220062</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10723,35 +10727,35 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>42.94049835</v>
+        <v>51.113899231</v>
       </c>
       <c r="H275" t="n">
-        <v>-78.73220062</v>
+        <v>-114.019996643</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10761,35 +10765,35 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>51.113899231</v>
+        <v>35.2140007019</v>
       </c>
       <c r="H276" t="n">
-        <v>-114.019996643</v>
+        <v>-80.94309997560001</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10799,7 +10803,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10813,21 +10817,21 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>35.2140007019</v>
+        <v>41.97859955</v>
       </c>
       <c r="H277" t="n">
-        <v>-80.94309997560001</v>
+        <v>-87.90480042</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10837,7 +10841,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10851,21 +10855,21 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>41.97859955</v>
+        <v>39.9980010986</v>
       </c>
       <c r="H278" t="n">
-        <v>-87.90480042</v>
+        <v>-82.89189910890001</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10875,7 +10879,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10889,21 +10893,21 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>39.9980010986</v>
+        <v>32.8968009949</v>
       </c>
       <c r="H279" t="n">
-        <v>-82.89189910890001</v>
+        <v>-97.0380020142</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10913,7 +10917,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10927,21 +10931,21 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>32.8968009949</v>
+        <v>39.8616981506</v>
       </c>
       <c r="H280" t="n">
-        <v>-97.0380020142</v>
+        <v>-104.672996521</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10951,7 +10955,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10965,21 +10969,21 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>39.8616981506</v>
+        <v>42.2123985291</v>
       </c>
       <c r="H281" t="n">
-        <v>-104.672996521</v>
+        <v>-83.35340118409999</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10989,7 +10993,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Honolulu</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11003,21 +11007,21 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>42.2123985291</v>
+        <v>21.3187007904</v>
       </c>
       <c r="H282" t="n">
-        <v>-83.35340118409999</v>
+        <v>-157.9219970703</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11027,7 +11031,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -11041,21 +11045,21 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>21.3187007904</v>
+        <v>29.9843997955</v>
       </c>
       <c r="H283" t="n">
-        <v>-157.9219970703</v>
+        <v>-95.34140014650001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11065,7 +11069,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Indianapolis</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -11079,21 +11083,21 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>29.9843997955</v>
+        <v>39.717300415</v>
       </c>
       <c r="H284" t="n">
-        <v>-95.34140014650001</v>
+        <v>-86.2944030762</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11103,7 +11107,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -11117,21 +11121,21 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>39.717300415</v>
+        <v>30.4941005707</v>
       </c>
       <c r="H285" t="n">
-        <v>-86.2944030762</v>
+        <v>-81.68789672849999</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11141,7 +11145,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11155,21 +11159,21 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>30.4941005707</v>
+        <v>39.2975997925</v>
       </c>
       <c r="H286" t="n">
-        <v>-81.68789672849999</v>
+        <v>-94.7138977051</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11179,7 +11183,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -11193,21 +11197,21 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>39.2975997925</v>
+        <v>36.08010101</v>
       </c>
       <c r="H287" t="n">
-        <v>-94.7138977051</v>
+        <v>-115.1520004</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11217,7 +11221,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11231,21 +11235,21 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>36.08010101</v>
+        <v>33.94250107</v>
       </c>
       <c r="H288" t="n">
-        <v>-115.1520004</v>
+        <v>-118.4079971</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11255,7 +11259,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>McAllen</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -11269,21 +11273,21 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>33.94250107</v>
+        <v>26.17580032</v>
       </c>
       <c r="H289" t="n">
-        <v>-118.4079971</v>
+        <v>-98.23860168</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11293,7 +11297,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -11307,21 +11311,21 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>26.17580032</v>
+        <v>35.0424003601</v>
       </c>
       <c r="H290" t="n">
-        <v>-98.23860168</v>
+        <v>-89.9766998291</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11331,35 +11335,35 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>35.0424003601</v>
+        <v>19.4363002777</v>
       </c>
       <c r="H291" t="n">
-        <v>-89.9766998291</v>
+        <v>-99.07209777830001</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11369,35 +11373,35 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>19.4363002777</v>
+        <v>25.7931995392</v>
       </c>
       <c r="H292" t="n">
-        <v>-99.07209777830001</v>
+        <v>-80.2906036377</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11407,7 +11411,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Minneapolis</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -11421,21 +11425,21 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>25.7931995392</v>
+        <v>44.8819999695</v>
       </c>
       <c r="H293" t="n">
-        <v>-80.2906036377</v>
+        <v>-93.22180175779999</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11445,35 +11449,35 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Montréal</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>44.8819999695</v>
+        <v>45.4706001282</v>
       </c>
       <c r="H294" t="n">
-        <v>-93.22180175779999</v>
+        <v>-73.7407989502</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11483,35 +11487,35 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>45.4706001282</v>
+        <v>36.1245002747</v>
       </c>
       <c r="H295" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.6781997681</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11521,7 +11525,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11535,21 +11539,21 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>36.1245002747</v>
+        <v>40.6925010681</v>
       </c>
       <c r="H296" t="n">
-        <v>-86.6781997681</v>
+        <v>-74.1687011719</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11559,7 +11563,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11573,21 +11577,21 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>40.6925010681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="H297" t="n">
-        <v>-74.1687011719</v>
+        <v>-76.2012023926</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11597,7 +11601,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11611,21 +11615,21 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>36.8945999146</v>
+        <v>41.3031997681</v>
       </c>
       <c r="H298" t="n">
-        <v>-76.2012023926</v>
+        <v>-95.89409637449999</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11635,35 +11639,35 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>41.3031997681</v>
+        <v>45.3224983215</v>
       </c>
       <c r="H299" t="n">
-        <v>-95.89409637449999</v>
+        <v>-75.66919708250001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11673,35 +11677,35 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>45.3224983215</v>
+        <v>39.8718986511</v>
       </c>
       <c r="H300" t="n">
-        <v>-75.66919708250001</v>
+        <v>-75.24109649659999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11711,7 +11715,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11725,21 +11729,21 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>39.8718986511</v>
+        <v>33.434299469</v>
       </c>
       <c r="H301" t="n">
-        <v>-75.24109649659999</v>
+        <v>-112.012001038</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11749,7 +11753,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11763,21 +11767,21 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>33.434299469</v>
+        <v>40.49150085</v>
       </c>
       <c r="H302" t="n">
-        <v>-112.012001038</v>
+        <v>-80.23290253</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11787,7 +11791,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11801,21 +11805,21 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>40.49150085</v>
+        <v>45.58869934</v>
       </c>
       <c r="H303" t="n">
-        <v>-80.23290253</v>
+        <v>-122.5979996</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11825,35 +11829,35 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>45.58869934</v>
+        <v>20.6173000336</v>
       </c>
       <c r="H304" t="n">
-        <v>-122.5979996</v>
+        <v>-100.185997009</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11863,35 +11867,35 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>20.6173000336</v>
+        <v>37.5051994324</v>
       </c>
       <c r="H305" t="n">
-        <v>-100.185997009</v>
+        <v>-77.3197021484</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -11901,7 +11905,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11915,21 +11919,21 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>37.5051994324</v>
+        <v>38.695400238</v>
       </c>
       <c r="H306" t="n">
-        <v>-77.3197021484</v>
+        <v>-121.591003418</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -11939,7 +11943,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11953,21 +11957,21 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>38.695400238</v>
+        <v>40.7883987427</v>
       </c>
       <c r="H307" t="n">
-        <v>-121.591003418</v>
+        <v>-111.977996826</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -11977,7 +11981,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11991,21 +11995,21 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>40.7883987427</v>
+        <v>32.7336006165</v>
       </c>
       <c r="H308" t="n">
-        <v>-111.977996826</v>
+        <v>-117.190002441</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12015,7 +12019,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -12029,21 +12033,21 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>32.7336006165</v>
+        <v>37.3625984192</v>
       </c>
       <c r="H309" t="n">
-        <v>-117.190002441</v>
+        <v>-121.929000855</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12053,35 +12057,35 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Saskatoon</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>37.3625984192</v>
+        <v>52.1707992554</v>
       </c>
       <c r="H310" t="n">
-        <v>-121.929000855</v>
+        <v>-106.699996948</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12091,35 +12095,35 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>52.1707992554</v>
+        <v>47.4490013123</v>
       </c>
       <c r="H311" t="n">
-        <v>-106.699996948</v>
+        <v>-122.308998108</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12129,12 +12133,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12143,21 +12147,21 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>47.4490013123</v>
+        <v>43.540819819502</v>
       </c>
       <c r="H312" t="n">
-        <v>-122.308998108</v>
+        <v>-96.65511577730963</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12167,12 +12171,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -12181,21 +12185,21 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>43.540819819502</v>
+        <v>38.7486991882</v>
       </c>
       <c r="H313" t="n">
-        <v>-96.65511577730963</v>
+        <v>-90.37000274659999</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12205,7 +12209,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Tallahassee</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -12219,21 +12223,21 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>38.7486991882</v>
+        <v>30.3964996338</v>
       </c>
       <c r="H314" t="n">
-        <v>-90.37000274659999</v>
+        <v>-84.3503036499</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12243,35 +12247,35 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G315" t="n">
-        <v>30.3964996338</v>
+        <v>43.6772003174</v>
       </c>
       <c r="H315" t="n">
-        <v>-84.3503036499</v>
+        <v>-79.63059997560001</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12281,7 +12285,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12295,21 +12299,21 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>43.6772003174</v>
+        <v>49.193901062</v>
       </c>
       <c r="H316" t="n">
-        <v>-79.63059997560001</v>
+        <v>-123.183998108</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12319,7 +12323,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Winnipeg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12333,21 +12337,21 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>49.193901062</v>
+        <v>49.9099998474</v>
       </c>
       <c r="H317" t="n">
-        <v>-123.183998108</v>
+        <v>-97.2398986816</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12357,35 +12361,35 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>49.9099998474</v>
+        <v>37.6189994812</v>
       </c>
       <c r="H318" t="n">
-        <v>-97.2398986816</v>
+        <v>-122.375</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12395,35 +12399,35 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G319" t="n">
-        <v>37.6189994812</v>
+        <v>17.9951</v>
       </c>
       <c r="H319" t="n">
-        <v>-122.375</v>
+        <v>-76.7846</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12433,35 +12437,35 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Bangor</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>17.9951</v>
+        <v>44.8081</v>
       </c>
       <c r="H320" t="n">
-        <v>-76.7846</v>
+        <v>-68.795</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12471,7 +12475,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12485,21 +12489,21 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>44.8081</v>
+        <v>30.1975</v>
       </c>
       <c r="H321" t="n">
-        <v>-68.795</v>
+        <v>-97.6664</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12509,7 +12513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12523,21 +12527,21 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>30.1975</v>
+        <v>35.0844</v>
       </c>
       <c r="H322" t="n">
-        <v>-97.6664</v>
+        <v>-106.6504</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12547,35 +12551,35 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>35.0844</v>
+        <v>20.5217990875</v>
       </c>
       <c r="H323" t="n">
-        <v>-106.6504</v>
+        <v>-103.3109970093</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12585,35 +12589,35 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>20.5217990875</v>
+        <v>29.429461</v>
       </c>
       <c r="H324" t="n">
-        <v>-103.3109970093</v>
+        <v>-98.487061</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12623,7 +12627,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12637,21 +12641,21 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>29.429461</v>
+        <v>41.50069</v>
       </c>
       <c r="H325" t="n">
-        <v>-98.487061</v>
+        <v>-81.68411999999999</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12661,7 +12665,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Durham</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12675,21 +12679,21 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>41.50069</v>
+        <v>35.93543</v>
       </c>
       <c r="H326" t="n">
-        <v>-81.68411999999999</v>
+        <v>-78.88075000000001</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12699,7 +12703,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12713,21 +12717,21 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>35.93543</v>
+        <v>35.46655</v>
       </c>
       <c r="H327" t="n">
-        <v>-78.88075000000001</v>
+        <v>-97.65373</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12737,7 +12741,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12751,21 +12755,21 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>35.46655</v>
+        <v>27.9755001068</v>
       </c>
       <c r="H328" t="n">
-        <v>-97.65373</v>
+        <v>-82.533203125</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>ANC</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Anchorage, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12775,7 +12779,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Anchorage</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12789,21 +12793,21 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>27.9755001068</v>
+        <v>61.158555</v>
       </c>
       <c r="H329" t="n">
-        <v>-82.533203125</v>
+        <v>-149.890208</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>YHZ</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Anchorage, United States</t>
+          <t>Halifax, Canada</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12813,61 +12817,23 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>61.158555</v>
+        <v>44.64601</v>
       </c>
       <c r="H330" t="n">
-        <v>-149.890208</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>YHZ</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Halifax, Canada</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Halifax</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="G331" t="n">
-        <v>44.64601</v>
-      </c>
-      <c r="H331" t="n">
         <v>-63.66844</v>
       </c>
     </row>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H330"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6174,50 +6174,50 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Accra, Ghana</t>
+          <t>San Pedro Sula, Honduras</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Accra</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.614818</v>
+        <v>15.4525995255</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.205874</v>
+        <v>-87.9235992432</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>ALG</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Algiers, Algeria</t>
+          <t>Accra, Ghana</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6227,35 +6227,35 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Algiers</t>
+          <t>Accra</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>36.6910018921</v>
+        <v>5.614818</v>
       </c>
       <c r="H153" t="n">
-        <v>3.2154099941</v>
+        <v>-0.205874</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>AAE</t>
+          <t>ALG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Annaba, Algeria</t>
+          <t>Algiers, Algeria</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Annaba</t>
+          <t>Algiers</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6279,21 +6279,21 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>36.85596</v>
+        <v>36.6910018921</v>
       </c>
       <c r="H154" t="n">
-        <v>7.79207</v>
+        <v>3.2154099941</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>TNR</t>
+          <t>AAE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Antananarivo, Madagascar</t>
+          <t>Annaba, Algeria</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6303,35 +6303,35 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>Annaba</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>DZ</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>-18.91368</v>
+        <v>36.85596</v>
       </c>
       <c r="H155" t="n">
-        <v>47.53613</v>
+        <v>7.79207</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>TNR</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cape Town, South Africa</t>
+          <t>Antananarivo, Madagascar</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6341,35 +6341,35 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>-33.9648017883</v>
+        <v>-18.91368</v>
       </c>
       <c r="H156" t="n">
-        <v>18.6016998291</v>
+        <v>47.53613</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>DKR</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Dakar, Senegal</t>
+          <t>Cape Town, South Africa</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6379,35 +6379,35 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>14.7412099</v>
+        <v>-33.9648017883</v>
       </c>
       <c r="H157" t="n">
-        <v>-17.4889771</v>
+        <v>18.6016998291</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>DAR</t>
+          <t>DKR</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dar es Salaam, Tanzania</t>
+          <t>Dakar, Senegal</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6417,35 +6417,35 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Dar es Salaam</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-6.8781099319</v>
+        <v>14.7412099</v>
       </c>
       <c r="H158" t="n">
-        <v>39.2025985718</v>
+        <v>-17.4889771</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>JIB</t>
+          <t>DAR</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Djibouti, Djibouti</t>
+          <t>Dar es Salaam, Tanzania</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6455,35 +6455,35 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Dar es Salaam</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>11.5473003387</v>
+        <v>-6.8781099319</v>
       </c>
       <c r="H159" t="n">
-        <v>43.1595001221</v>
+        <v>39.2025985718</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>DUR</t>
+          <t>JIB</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Durban, South Africa</t>
+          <t>Djibouti, Djibouti</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6493,35 +6493,35 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>-29.6144444444</v>
+        <v>11.5473003387</v>
       </c>
       <c r="H160" t="n">
-        <v>31.1197222222</v>
+        <v>43.1595001221</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>GBE</t>
+          <t>DUR</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Gaborone, Botswana</t>
+          <t>Durban, South Africa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6531,35 +6531,35 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Gaborone</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>-24.6282</v>
+        <v>-29.6144444444</v>
       </c>
       <c r="H161" t="n">
-        <v>25.9231</v>
+        <v>31.1197222222</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>HRE</t>
+          <t>GBE</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Harare, Zimbabwe</t>
+          <t>Gaborone, Botswana</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6569,35 +6569,35 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Harare</t>
+          <t>Gaborone</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ZW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>-17.9318008423</v>
+        <v>-24.6282</v>
       </c>
       <c r="H162" t="n">
-        <v>31.0928001404</v>
+        <v>25.9231</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>JNB</t>
+          <t>HRE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Johannesburg, South Africa</t>
+          <t>Harare, Zimbabwe</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6607,35 +6607,35 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Johannesburg</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ZW</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>-26.133333</v>
+        <v>-17.9318008423</v>
       </c>
       <c r="H163" t="n">
-        <v>28.25</v>
+        <v>31.0928001404</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>KGL</t>
+          <t>JNB</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kigali, Rwanda</t>
+          <t>Johannesburg, South Africa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6645,35 +6645,35 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Kigali</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>-1.9686299563</v>
+        <v>-26.133333</v>
       </c>
       <c r="H164" t="n">
-        <v>30.1394996643</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>LOS</t>
+          <t>KGL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Lagos, Nigeria</t>
+          <t>Kigali, Rwanda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6683,35 +6683,35 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.5773701668</v>
+        <v>-1.9686299563</v>
       </c>
       <c r="H165" t="n">
-        <v>3.321160078</v>
+        <v>30.1394996643</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>LOS</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Luanda, Angola</t>
+          <t>Lagos, Nigeria</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6721,35 +6721,35 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>-8.858369827300001</v>
+        <v>6.5773701668</v>
       </c>
       <c r="H166" t="n">
-        <v>13.2312002182</v>
+        <v>3.321160078</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>MPM</t>
+          <t>LAD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Maputo, Mozambique</t>
+          <t>Luanda, Angola</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6759,35 +6759,35 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Maputo</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>-25.9207992554</v>
+        <v>-8.858369827300001</v>
       </c>
       <c r="H167" t="n">
-        <v>32.5726013184</v>
+        <v>13.2312002182</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>MBA</t>
+          <t>MPM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mombasa, Kenya</t>
+          <t>Maputo, Mozambique</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6797,35 +6797,35 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Mombasa</t>
+          <t>Maputo</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>-4.0348300934</v>
+        <v>-25.9207992554</v>
       </c>
       <c r="H168" t="n">
-        <v>39.5942001343</v>
+        <v>32.5726013184</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>NBO</t>
+          <t>MBA</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nairobi, Kenya</t>
+          <t>Mombasa, Kenya</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>Mombasa</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6849,21 +6849,21 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>-1.319239974</v>
+        <v>-4.0348300934</v>
       </c>
       <c r="H169" t="n">
-        <v>36.9277992249</v>
+        <v>39.5942001343</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>ORN</t>
+          <t>NBO</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Oran, Algeria</t>
+          <t>Nairobi, Kenya</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6873,35 +6873,35 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Oran</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>35.6911</v>
+        <v>-1.319239974</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.6415999999999999</v>
+        <v>36.9277992249</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>OUA</t>
+          <t>ORN</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ouagadougou, Burkina Faso</t>
+          <t>Oran, Algeria</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6911,35 +6911,35 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ouagadougou</t>
+          <t>Oran</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>DZ</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>12.3531999588</v>
+        <v>35.6911</v>
       </c>
       <c r="H171" t="n">
-        <v>-1.5124200583</v>
+        <v>-0.6415999999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>MRU</t>
+          <t>OUA</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Port Louis, Mauritius</t>
+          <t>Ouagadougou, Burkina Faso</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6949,35 +6949,35 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Ouagadougou</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>-20.4302005768</v>
+        <v>12.3531999588</v>
       </c>
       <c r="H172" t="n">
-        <v>57.6836013794</v>
+        <v>-1.5124200583</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RUN</t>
+          <t>MRU</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Saint-Denis, Réunion</t>
+          <t>Port Louis, Mauritius</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6987,35 +6987,35 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Saint-Denis</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Réunion</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>-20.8871002197</v>
+        <v>-20.4302005768</v>
       </c>
       <c r="H173" t="n">
-        <v>55.5102996826</v>
+        <v>57.6836013794</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>RUN</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Saint-Denis, Réunion</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7025,35 +7025,35 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Saint-Denis</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Réunion</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>36.8510017395</v>
+        <v>-20.8871002197</v>
       </c>
       <c r="H174" t="n">
-        <v>10.2271995544</v>
+        <v>55.5102996826</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>FIH</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kinshasa, DR Congo</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7063,35 +7063,35 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Kinshasa</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-4.3857498169</v>
+        <v>36.8510017395</v>
       </c>
       <c r="H175" t="n">
-        <v>15.4446001053</v>
+        <v>10.2271995544</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>CAI</t>
+          <t>FIH</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Kinshasa, DR Congo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7101,35 +7101,35 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Kinshasa</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>DR Congo</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>30.1219005585</v>
+        <v>-4.3857498169</v>
       </c>
       <c r="H176" t="n">
-        <v>31.4055995941</v>
+        <v>15.4446001053</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>WDH</t>
+          <t>CAI</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Windhoek, Namibia</t>
+          <t>Cairo, Egypt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7139,35 +7139,35 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>-22.565587</v>
+        <v>30.1219005585</v>
       </c>
       <c r="H177" t="n">
-        <v>17.085334</v>
+        <v>31.4055995941</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>ASK</t>
+          <t>WDH</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Yamoussoukro, Ivory Coast</t>
+          <t>Windhoek, Namibia</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7177,35 +7177,35 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Yamoussoukro</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.842178</v>
+        <v>-22.565587</v>
       </c>
       <c r="H178" t="n">
-        <v>-5.259932</v>
+        <v>17.085334</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>ABJ</t>
+          <t>ASK</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Abidjan, Ivory Coast</t>
+          <t>Yamoussoukro, Ivory Coast</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Abidjan</t>
+          <t>Yamoussoukro</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7229,21 +7229,21 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.292598</v>
+        <v>6.842178</v>
       </c>
       <c r="H179" t="n">
-        <v>-3.999133</v>
+        <v>-5.259932</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>EBB</t>
+          <t>ABJ</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Kampala, Uganda</t>
+          <t>Abidjan, Ivory Coast</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7253,35 +7253,35 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Abidjan</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>UG</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.3152</v>
+        <v>5.292598</v>
       </c>
       <c r="H180" t="n">
-        <v>32.5816</v>
+        <v>-3.999133</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>LUN</t>
+          <t>EBB</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lusaka, Zambia</t>
+          <t>Kampala, Uganda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7291,73 +7291,73 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Kampala</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>UG</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>-15.371446</v>
+        <v>0.3152</v>
       </c>
       <c r="H181" t="n">
-        <v>28.317837</v>
+        <v>32.5816</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>LUN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ahmedabad, India</t>
+          <t>Lusaka, Zambia</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>23.0225</v>
+        <v>-15.371446</v>
       </c>
       <c r="H182" t="n">
-        <v>72.5714</v>
+        <v>28.317837</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almaty, Kazakhstan</t>
+          <t>Ahmedabad, India</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7367,35 +7367,35 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Almaty</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>43.3521003723</v>
+        <v>23.0225</v>
       </c>
       <c r="H183" t="n">
-        <v>77.0404968262</v>
+        <v>72.5714</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bangalore, India</t>
+          <t>Almaty, Kazakhstan</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7405,35 +7405,35 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Almaty</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>13.7835719</v>
+        <v>43.3521003723</v>
       </c>
       <c r="H184" t="n">
-        <v>76.6165937</v>
+        <v>77.0404968262</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>BKK</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bangkok, Thailand</t>
+          <t>Bangalore, India</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7443,35 +7443,35 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>13.6810998917</v>
+        <v>13.7835719</v>
       </c>
       <c r="H185" t="n">
-        <v>100.747001648</v>
+        <v>76.6165937</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>BWN</t>
+          <t>BKK</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Bandar Seri Begawan, Brunei</t>
+          <t>Bangkok, Thailand</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7481,35 +7481,35 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Bandar Seri Begawan</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.903052</v>
+        <v>13.6810998917</v>
       </c>
       <c r="H186" t="n">
-        <v>114.939819</v>
+        <v>100.747001648</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>BBI</t>
+          <t>BWN</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bhubaneswar, India</t>
+          <t>Bandar Seri Begawan, Brunei</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7519,35 +7519,35 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Bhubaneswar</t>
+          <t>Bandar Seri Begawan</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>20.2961</v>
+        <v>4.903052</v>
       </c>
       <c r="H187" t="n">
-        <v>85.8245</v>
+        <v>114.939819</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>CEB</t>
+          <t>BBI</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cebu, Philippines</t>
+          <t>Bhubaneswar, India</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7557,35 +7557,35 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Bhubaneswar</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>10.3074998856</v>
+        <v>20.2961</v>
       </c>
       <c r="H188" t="n">
-        <v>123.978996277</v>
+        <v>85.8245</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>IXC</t>
+          <t>CEB</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Cebu, Philippines</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7595,107 +7595,107 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>30.673500061</v>
+        <v>10.3074998856</v>
       </c>
       <c r="H189" t="n">
-        <v>76.7884979248</v>
+        <v>123.978996277</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>CGD</t>
+          <t>IXC</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Changde, China</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Changde</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>30.673500061</v>
+      </c>
+      <c r="H190" t="n">
+        <v>76.7884979248</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>CGD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Chennai, India</t>
+          <t>Changde, China</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Changde</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>12.9900054932</v>
-      </c>
-      <c r="H191" t="n">
-        <v>80.16929626460001</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>CGP</t>
+          <t>MAA</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chittagong, Bangladesh</t>
+          <t>Chennai, India</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7705,35 +7705,35 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Chittagong</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>22.2495995</v>
+        <v>12.9900054932</v>
       </c>
       <c r="H192" t="n">
-        <v>91.8133011</v>
+        <v>80.16929626460001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>CMB</t>
+          <t>CGP</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Chittagong, Bangladesh</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7743,35 +7743,35 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Colombo</t>
+          <t>Chittagong</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.1807599068</v>
+        <v>22.2495995</v>
       </c>
       <c r="H193" t="n">
-        <v>79.8841018677</v>
+        <v>91.8133011</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>CMB</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Dhaka, Bangladesh</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7781,141 +7781,145 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Dhaka</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>23.843347</v>
+        <v>7.1807599068</v>
       </c>
       <c r="H194" t="n">
-        <v>90.397783</v>
+        <v>79.8841018677</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>FUO</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Foshan, China</t>
+          <t>Dhaka, Bangladesh</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Foshan</t>
+          <t>Dhaka</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>23.843347</v>
+      </c>
+      <c r="H195" t="n">
+        <v>90.397783</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>FUK</t>
+          <t>FUO</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fukuoka, Japan</t>
+          <t>Foshan, China</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
+          <t>Foshan</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>33.5902</v>
-      </c>
-      <c r="H196" t="n">
-        <v>130.4017</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>FOC</t>
+          <t>FUK</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Fuzhou, China</t>
+          <t>Fukuoka, Japan</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Fuzhou</t>
+          <t>Fukuoka</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>33.5902</v>
+      </c>
+      <c r="H197" t="n">
+        <v>130.4017</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>FOC</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Guangzhou, China</t>
+          <t>Fuzhou, China</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7925,7 +7929,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Guangzhou</t>
+          <t>Fuzhou</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7944,12 +7948,12 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>HAK</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chengmai, China</t>
+          <t>Guangzhou, China</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7959,7 +7963,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Chengmai</t>
+          <t>Guangzhou</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7978,122 +7982,118 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>HAK</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Hanoi, Vietnam</t>
+          <t>Chengmai, China</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Hanoi</t>
+          <t>Chengmai</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>21.221200943</v>
-      </c>
-      <c r="H200" t="n">
-        <v>105.806999206</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SJW</t>
+          <t>HAN</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hengshui, China</t>
+          <t>Hanoi, Vietnam</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Hengshui</t>
+          <t>Hanoi</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>21.221200943</v>
+      </c>
+      <c r="H201" t="n">
+        <v>105.806999206</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SGN</t>
+          <t>SJW</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City, Vietnam</t>
+          <t>Hengshui, China</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City</t>
+          <t>Hengshui</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>10.8187999725</v>
-      </c>
-      <c r="H202" t="n">
-        <v>106.652000427</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>SGN</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Ho Chi Minh City, Vietnam</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8103,31 +8103,35 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>Ho Chi Minh City</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>22.3089008331</v>
+        <v>10.8187999725</v>
       </c>
       <c r="H203" t="n">
-        <v>113.915000916</v>
+        <v>106.652000427</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>HYD</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Hyderabad, India</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8137,35 +8141,31 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>17.2313175201</v>
+        <v>22.3089008331</v>
       </c>
       <c r="H204" t="n">
-        <v>78.42985534669999</v>
+        <v>113.915000916</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>ISB</t>
+          <t>HYD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Islamabad, Pakistan</t>
+          <t>Hyderabad, India</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8175,35 +8175,35 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>33.6166992188</v>
+        <v>17.2313175201</v>
       </c>
       <c r="H205" t="n">
-        <v>73.0991973877</v>
+        <v>78.42985534669999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>CGK</t>
+          <t>ISB</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Jakarta, Indonesia</t>
+          <t>Islamabad, Pakistan</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8213,107 +8213,107 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Jakarta</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>-6.1275229</v>
+        <v>33.6166992188</v>
       </c>
       <c r="H206" t="n">
-        <v>106.6515118</v>
+        <v>73.0991973877</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>CGK</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Zibo, China</t>
+          <t>Jakarta, Indonesia</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Zibo</t>
+          <t>Jakarta</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>-6.1275229</v>
+      </c>
+      <c r="H207" t="n">
+        <v>106.6515118</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>JHB</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Johor Bahru, Malaysia</t>
+          <t>Zibo, China</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Johor Bahru</t>
+          <t>Zibo</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>MY</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>1.635848</v>
-      </c>
-      <c r="H208" t="n">
-        <v>103.665943</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>KNU</t>
+          <t>JHB</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Kanpur, India</t>
+          <t>Johor Bahru, Malaysia</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8323,35 +8323,35 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Kanpur</t>
+          <t>Johor Bahru</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>26.4499</v>
+        <v>1.635848</v>
       </c>
       <c r="H209" t="n">
-        <v>80.3319</v>
+        <v>103.665943</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>KHH</t>
+          <t>KNU</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Kaohsiung City, Taiwan</t>
+          <t>Kanpur, India</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8361,35 +8361,35 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Kaohsiung City</t>
+          <t>Kanpur</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>22.5771007538</v>
+        <v>26.4499</v>
       </c>
       <c r="H210" t="n">
-        <v>120.3499984741</v>
+        <v>80.3319</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>KHI</t>
+          <t>KHH</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Kaohsiung City, Taiwan</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8399,35 +8399,35 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Kaohsiung City</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>24.9064998627</v>
+        <v>22.5771007538</v>
       </c>
       <c r="H211" t="n">
-        <v>67.1607971191</v>
+        <v>120.3499984741</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>KTM</t>
+          <t>KHI</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Kathmandu, Nepal</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8437,35 +8437,35 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Kathmandu</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>27.6965999603</v>
+        <v>24.9064998627</v>
       </c>
       <c r="H212" t="n">
-        <v>85.3591003418</v>
+        <v>67.1607971191</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>CCU</t>
+          <t>KTM</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Kolkata, India</t>
+          <t>Kathmandu, Nepal</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8475,35 +8475,35 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Kolkata</t>
+          <t>Kathmandu</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>22.6476933</v>
+        <v>27.6965999603</v>
       </c>
       <c r="H213" t="n">
-        <v>88.4349249</v>
+        <v>85.3591003418</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>KJA</t>
+          <t>CCU</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Krasnoyarsk, Russia</t>
+          <t>Kolkata, India</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8513,35 +8513,35 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Krasnoyarsk</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>56.0153</v>
+        <v>22.6476933</v>
       </c>
       <c r="H214" t="n">
-        <v>92.89319999999999</v>
+        <v>88.4349249</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>KUL</t>
+          <t>KJA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Malaysia</t>
+          <t>Krasnoyarsk, Russia</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8551,35 +8551,35 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Krasnoyarsk</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.745579958</v>
+        <v>56.0153</v>
       </c>
       <c r="H215" t="n">
-        <v>101.709999084</v>
+        <v>92.89319999999999</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>LHE</t>
+          <t>KUL</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8589,69 +8589,73 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>31.5216007233</v>
+        <v>2.745579958</v>
       </c>
       <c r="H216" t="n">
-        <v>74.4036026001</v>
+        <v>101.709999084</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>PKX</t>
+          <t>LHE</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Langfang, China</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Langfang</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>31.5216007233</v>
+      </c>
+      <c r="H217" t="n">
+        <v>74.4036026001</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>LHW</t>
+          <t>PKX</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lanzhou, China</t>
+          <t>Langfang, China</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8661,7 +8665,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Lanzhou</t>
+          <t>Langfang</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8680,46 +8684,46 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>MFM</t>
+          <t>LHW</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lanzhou, China</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Macau</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>Lanzhou</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>22.1495990753</v>
-      </c>
-      <c r="H219" t="n">
-        <v>113.592002869</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>MLE</t>
+          <t>MFM</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Male, Maldives</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8729,35 +8733,31 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
-      </c>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>MV</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.1748</v>
+        <v>22.1495990753</v>
       </c>
       <c r="H220" t="n">
-        <v>73.50888</v>
+        <v>113.592002869</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>MNL</t>
+          <t>MLE</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Manila, Philippines</t>
+          <t>Male, Maldives</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8767,35 +8767,35 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>MV</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>14.508600235</v>
+        <v>4.1748</v>
       </c>
       <c r="H221" t="n">
-        <v>121.019996643</v>
+        <v>73.50888</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>MNL</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mumbai, India</t>
+          <t>Manila, Philippines</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8805,35 +8805,35 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>19.0886993408</v>
+        <v>14.508600235</v>
       </c>
       <c r="H222" t="n">
-        <v>72.8678970337</v>
+        <v>121.019996643</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>NAG</t>
+          <t>BOM</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Nagpur, India</t>
+          <t>Mumbai, India</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Nagpur</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -8857,21 +8857,21 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>21.1610714</v>
+        <v>19.0886993408</v>
       </c>
       <c r="H223" t="n">
-        <v>79.0024702</v>
+        <v>72.8678970337</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>OKA</t>
+          <t>NAG</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naha, Japan</t>
+          <t>Nagpur, India</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8881,35 +8881,35 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Naha</t>
+          <t>Nagpur</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>26.1958</v>
+        <v>21.1610714</v>
       </c>
       <c r="H224" t="n">
-        <v>127.646</v>
+        <v>79.0024702</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>DEL</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>New Delhi, India</t>
+          <t>Naha, Japan</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8919,35 +8919,35 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Naha</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>28.5664997101</v>
+        <v>26.1958</v>
       </c>
       <c r="H225" t="n">
-        <v>77.1031036377</v>
+        <v>127.646</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>KIX</t>
+          <t>DEL</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Osaka, Japan</t>
+          <t>New Delhi, India</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8957,35 +8957,35 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>34.4272994995</v>
+        <v>28.5664997101</v>
       </c>
       <c r="H226" t="n">
-        <v>135.244003296</v>
+        <v>77.1031036377</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>KIX</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Patna, India</t>
+          <t>Osaka, Japan</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8995,35 +8995,35 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Patna</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>25.591299057</v>
+        <v>34.4272994995</v>
       </c>
       <c r="H227" t="n">
-        <v>85.0879974365</v>
+        <v>135.244003296</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>PNH</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Phnom Penh, Cambodia</t>
+          <t>Patna, India</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9033,179 +9033,179 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Patna</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>KH</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>11.5466003418</v>
+        <v>25.591299057</v>
       </c>
       <c r="H228" t="n">
-        <v>104.84400177</v>
+        <v>85.0879974365</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>PNH</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Qingdao, China</t>
+          <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>11.5466003418</v>
+      </c>
+      <c r="H229" t="n">
+        <v>104.84400177</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>ICN</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Seoul, South Korea</t>
+          <t>Qingdao, China</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>37.4691009521</v>
-      </c>
-      <c r="H230" t="n">
-        <v>126.450996399</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>SHA</t>
+          <t>ICN</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Shanghai, China</t>
+          <t>Seoul, South Korea</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>37.4691009521</v>
+      </c>
+      <c r="H231" t="n">
+        <v>126.450996399</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SHA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Singapore, Singapore</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>1.3501900434</v>
-      </c>
-      <c r="H232" t="n">
-        <v>103.994003296</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>URT</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Surat Thani, Thailand</t>
+          <t>Singapore, Singapore</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9215,35 +9215,35 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Surat Thani</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>9.1325998306</v>
+        <v>1.3501900434</v>
       </c>
       <c r="H233" t="n">
-        <v>99.135597229</v>
+        <v>103.994003296</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>TPE</t>
+          <t>URT</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Taipei</t>
+          <t>Surat Thani, Thailand</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9253,31 +9253,35 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Taipei</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
+          <t>Surat Thani</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>25.0776996613</v>
+        <v>9.1325998306</v>
       </c>
       <c r="H234" t="n">
-        <v>121.233001709</v>
+        <v>99.135597229</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>NRT</t>
+          <t>TPE</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Tokyo, Japan</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9287,35 +9291,31 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Tokyo</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+          <t>Taipei</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>35.7647018433</v>
+        <v>25.0776996613</v>
       </c>
       <c r="H235" t="n">
-        <v>140.386001587</v>
+        <v>121.233001709</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>ULN</t>
+          <t>NRT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ulaanbaatar, Mongolia</t>
+          <t>Tokyo, Japan</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9325,35 +9325,35 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>47.8431015015</v>
+        <v>35.7647018433</v>
       </c>
       <c r="H236" t="n">
-        <v>106.766998291</v>
+        <v>140.386001587</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>VTE</t>
+          <t>ULN</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vientiane, Laos</t>
+          <t>Ulaanbaatar, Mongolia</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9363,241 +9363,245 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Vientiane</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>17.9757</v>
+        <v>47.8431015015</v>
       </c>
       <c r="H237" t="n">
-        <v>102.5683</v>
+        <v>106.766998291</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>KHN</t>
+          <t>VTE</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Nanchang, China</t>
+          <t>Vientiane, Laos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Nanchang</t>
+          <t>Vientiane</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>17.9757</v>
+      </c>
+      <c r="H238" t="n">
+        <v>102.5683</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>EVN</t>
+          <t>KHN</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Yerevan, Armenia</t>
+          <t>Nanchang, China</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Nanchang</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
-        <v>40.1473007202</v>
-      </c>
-      <c r="H239" t="n">
-        <v>44.3959007263</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>JOG</t>
+          <t>EVN</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Yogyakarta, Indonesia</t>
+          <t>Yerevan, Armenia</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Yogyakarta</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>-7.7881798744</v>
+        <v>40.1473007202</v>
       </c>
       <c r="H240" t="n">
-        <v>110.4319992065</v>
+        <v>44.3959007263</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>ZGN</t>
+          <t>JOG</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Zhongshan, China</t>
+          <t>Yogyakarta, Indonesia</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Zhongshan</t>
+          <t>Yogyakarta</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>-7.7881798744</v>
+      </c>
+      <c r="H241" t="n">
+        <v>110.4319992065</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>CGY</t>
+          <t>ZGN</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Cagayan de Oro, Philippines</t>
+          <t>Zhongshan, China</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Cagayan de Oro</t>
+          <t>Zhongshan</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>8.415619850200001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>124.611000061</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>HYN</t>
+          <t>CGY</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Taizhou, China</t>
+          <t>Cagayan de Oro, Philippines</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Taizhou</t>
+          <t>Cagayan de Oro</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>8.415619850200001</v>
+      </c>
+      <c r="H243" t="n">
+        <v>124.611000061</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -10560,50 +10564,46 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>HYN</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Taizhou, China</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Taizhou</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>38.94449997</v>
-      </c>
-      <c r="H271" t="n">
-        <v>-77.45580292</v>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ashburn</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10627,21 +10627,21 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>33.6366996765</v>
+        <v>38.94449997</v>
       </c>
       <c r="H272" t="n">
-        <v>-84.4281005859</v>
+        <v>-77.45580292</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10665,21 +10665,21 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>42.36429977</v>
+        <v>33.6366996765</v>
       </c>
       <c r="H273" t="n">
-        <v>-71.00520324999999</v>
+        <v>-84.4281005859</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10703,21 +10703,21 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>42.94049835</v>
+        <v>42.36429977</v>
       </c>
       <c r="H274" t="n">
-        <v>-78.73220062</v>
+        <v>-71.00520324999999</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10727,35 +10727,35 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>51.113899231</v>
+        <v>42.94049835</v>
       </c>
       <c r="H275" t="n">
-        <v>-114.019996643</v>
+        <v>-78.73220062</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10765,35 +10765,35 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>35.2140007019</v>
+        <v>51.113899231</v>
       </c>
       <c r="H276" t="n">
-        <v>-80.94309997560001</v>
+        <v>-114.019996643</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10817,21 +10817,21 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>41.97859955</v>
+        <v>35.2140007019</v>
       </c>
       <c r="H277" t="n">
-        <v>-87.90480042</v>
+        <v>-80.94309997560001</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10855,21 +10855,21 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>39.9980010986</v>
+        <v>41.97859955</v>
       </c>
       <c r="H278" t="n">
-        <v>-82.89189910890001</v>
+        <v>-87.90480042</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10893,21 +10893,21 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>32.8968009949</v>
+        <v>39.9980010986</v>
       </c>
       <c r="H279" t="n">
-        <v>-97.0380020142</v>
+        <v>-82.89189910890001</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10931,21 +10931,21 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>39.8616981506</v>
+        <v>32.8968009949</v>
       </c>
       <c r="H280" t="n">
-        <v>-104.672996521</v>
+        <v>-97.0380020142</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10969,21 +10969,21 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>42.2123985291</v>
+        <v>39.8616981506</v>
       </c>
       <c r="H281" t="n">
-        <v>-83.35340118409999</v>
+        <v>-104.672996521</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11007,21 +11007,21 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>21.3187007904</v>
+        <v>42.2123985291</v>
       </c>
       <c r="H282" t="n">
-        <v>-157.9219970703</v>
+        <v>-83.35340118409999</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Honolulu</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -11045,21 +11045,21 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>29.9843997955</v>
+        <v>21.3187007904</v>
       </c>
       <c r="H283" t="n">
-        <v>-95.34140014650001</v>
+        <v>-157.9219970703</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -11083,21 +11083,21 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>39.717300415</v>
+        <v>29.9843997955</v>
       </c>
       <c r="H284" t="n">
-        <v>-86.2944030762</v>
+        <v>-95.34140014650001</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Indianapolis</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -11121,21 +11121,21 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>30.4941005707</v>
+        <v>39.717300415</v>
       </c>
       <c r="H285" t="n">
-        <v>-81.68789672849999</v>
+        <v>-86.2944030762</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11159,21 +11159,21 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>39.2975997925</v>
+        <v>30.4941005707</v>
       </c>
       <c r="H286" t="n">
-        <v>-94.7138977051</v>
+        <v>-81.68789672849999</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -11197,21 +11197,21 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>36.08010101</v>
+        <v>39.2975997925</v>
       </c>
       <c r="H287" t="n">
-        <v>-115.1520004</v>
+        <v>-94.7138977051</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11235,21 +11235,21 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>33.94250107</v>
+        <v>36.08010101</v>
       </c>
       <c r="H288" t="n">
-        <v>-118.4079971</v>
+        <v>-115.1520004</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -11273,21 +11273,21 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>26.17580032</v>
+        <v>33.94250107</v>
       </c>
       <c r="H289" t="n">
-        <v>-98.23860168</v>
+        <v>-118.4079971</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>McAllen</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -11311,21 +11311,21 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>35.0424003601</v>
+        <v>26.17580032</v>
       </c>
       <c r="H290" t="n">
-        <v>-89.9766998291</v>
+        <v>-98.23860168</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11335,35 +11335,35 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>19.4363002777</v>
+        <v>35.0424003601</v>
       </c>
       <c r="H291" t="n">
-        <v>-99.07209777830001</v>
+        <v>-89.9766998291</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11373,35 +11373,35 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>25.7931995392</v>
+        <v>19.4363002777</v>
       </c>
       <c r="H292" t="n">
-        <v>-80.2906036377</v>
+        <v>-99.07209777830001</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -11425,21 +11425,21 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>44.8819999695</v>
+        <v>25.7931995392</v>
       </c>
       <c r="H293" t="n">
-        <v>-93.22180175779999</v>
+        <v>-80.2906036377</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11449,35 +11449,35 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Minneapolis</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>45.4706001282</v>
+        <v>44.8819999695</v>
       </c>
       <c r="H294" t="n">
-        <v>-73.7407989502</v>
+        <v>-93.22180175779999</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11487,35 +11487,35 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>36.1245002747</v>
+        <v>45.4706001282</v>
       </c>
       <c r="H295" t="n">
-        <v>-86.6781997681</v>
+        <v>-73.7407989502</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11539,21 +11539,21 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>40.6925010681</v>
+        <v>36.1245002747</v>
       </c>
       <c r="H296" t="n">
-        <v>-74.1687011719</v>
+        <v>-86.6781997681</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11577,21 +11577,21 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>36.8945999146</v>
+        <v>40.6925010681</v>
       </c>
       <c r="H297" t="n">
-        <v>-76.2012023926</v>
+        <v>-74.1687011719</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11615,21 +11615,21 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>41.3031997681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="H298" t="n">
-        <v>-95.89409637449999</v>
+        <v>-76.2012023926</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11639,35 +11639,35 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>45.3224983215</v>
+        <v>41.3031997681</v>
       </c>
       <c r="H299" t="n">
-        <v>-75.66919708250001</v>
+        <v>-95.89409637449999</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11677,35 +11677,35 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>39.8718986511</v>
+        <v>45.3224983215</v>
       </c>
       <c r="H300" t="n">
-        <v>-75.24109649659999</v>
+        <v>-75.66919708250001</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11729,21 +11729,21 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>33.434299469</v>
+        <v>39.8718986511</v>
       </c>
       <c r="H301" t="n">
-        <v>-112.012001038</v>
+        <v>-75.24109649659999</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11767,21 +11767,21 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>40.49150085</v>
+        <v>33.434299469</v>
       </c>
       <c r="H302" t="n">
-        <v>-80.23290253</v>
+        <v>-112.012001038</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11805,21 +11805,21 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>45.58869934</v>
+        <v>40.49150085</v>
       </c>
       <c r="H303" t="n">
-        <v>-122.5979996</v>
+        <v>-80.23290253</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11829,35 +11829,35 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>20.6173000336</v>
+        <v>45.58869934</v>
       </c>
       <c r="H304" t="n">
-        <v>-100.185997009</v>
+        <v>-122.5979996</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11867,35 +11867,35 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>37.5051994324</v>
+        <v>20.6173000336</v>
       </c>
       <c r="H305" t="n">
-        <v>-77.3197021484</v>
+        <v>-100.185997009</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11919,21 +11919,21 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>38.695400238</v>
+        <v>37.5051994324</v>
       </c>
       <c r="H306" t="n">
-        <v>-121.591003418</v>
+        <v>-77.3197021484</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11957,21 +11957,21 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>40.7883987427</v>
+        <v>38.695400238</v>
       </c>
       <c r="H307" t="n">
-        <v>-111.977996826</v>
+        <v>-121.591003418</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11995,21 +11995,21 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>32.7336006165</v>
+        <v>40.7883987427</v>
       </c>
       <c r="H308" t="n">
-        <v>-117.190002441</v>
+        <v>-111.977996826</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -12033,21 +12033,21 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>37.3625984192</v>
+        <v>32.7336006165</v>
       </c>
       <c r="H309" t="n">
-        <v>-121.929000855</v>
+        <v>-117.190002441</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12057,35 +12057,35 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>52.1707992554</v>
+        <v>37.3625984192</v>
       </c>
       <c r="H310" t="n">
-        <v>-106.699996948</v>
+        <v>-121.929000855</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12095,35 +12095,35 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Saskatoon</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>47.4490013123</v>
+        <v>52.1707992554</v>
       </c>
       <c r="H311" t="n">
-        <v>-122.308998108</v>
+        <v>-106.699996948</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12133,12 +12133,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12147,21 +12147,21 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>43.540819819502</v>
+        <v>47.4490013123</v>
       </c>
       <c r="H312" t="n">
-        <v>-96.65511577730963</v>
+        <v>-122.308998108</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12171,12 +12171,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -12185,21 +12185,21 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>38.7486991882</v>
+        <v>43.540819819502</v>
       </c>
       <c r="H313" t="n">
-        <v>-90.37000274659999</v>
+        <v>-96.65511577730963</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -12223,21 +12223,21 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>30.3964996338</v>
+        <v>38.7486991882</v>
       </c>
       <c r="H314" t="n">
-        <v>-84.3503036499</v>
+        <v>-90.37000274659999</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12247,35 +12247,35 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Tallahassee</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G315" t="n">
-        <v>43.6772003174</v>
+        <v>30.3964996338</v>
       </c>
       <c r="H315" t="n">
-        <v>-79.63059997560001</v>
+        <v>-84.3503036499</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12299,21 +12299,21 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>49.193901062</v>
+        <v>43.6772003174</v>
       </c>
       <c r="H316" t="n">
-        <v>-123.183998108</v>
+        <v>-79.63059997560001</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12337,21 +12337,21 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>49.9099998474</v>
+        <v>49.193901062</v>
       </c>
       <c r="H317" t="n">
-        <v>-97.2398986816</v>
+        <v>-123.183998108</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12361,35 +12361,35 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>37.6189994812</v>
+        <v>49.9099998474</v>
       </c>
       <c r="H318" t="n">
-        <v>-122.375</v>
+        <v>-97.2398986816</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12399,35 +12399,35 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G319" t="n">
-        <v>17.9951</v>
+        <v>37.6189994812</v>
       </c>
       <c r="H319" t="n">
-        <v>-76.7846</v>
+        <v>-122.375</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12437,35 +12437,35 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>44.8081</v>
+        <v>17.9951</v>
       </c>
       <c r="H320" t="n">
-        <v>-68.795</v>
+        <v>-76.7846</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12475,7 +12475,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12489,21 +12489,21 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>30.1975</v>
+        <v>44.8081</v>
       </c>
       <c r="H321" t="n">
-        <v>-97.6664</v>
+        <v>-68.795</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12527,21 +12527,21 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>35.0844</v>
+        <v>30.1975</v>
       </c>
       <c r="H322" t="n">
-        <v>-106.6504</v>
+        <v>-97.6664</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12551,35 +12551,35 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>20.5217990875</v>
+        <v>35.0844</v>
       </c>
       <c r="H323" t="n">
-        <v>-103.3109970093</v>
+        <v>-106.6504</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12589,35 +12589,35 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>29.429461</v>
+        <v>20.5217990875</v>
       </c>
       <c r="H324" t="n">
-        <v>-98.487061</v>
+        <v>-103.3109970093</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12641,21 +12641,21 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>41.50069</v>
+        <v>29.429461</v>
       </c>
       <c r="H325" t="n">
-        <v>-81.68411999999999</v>
+        <v>-98.487061</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12679,21 +12679,21 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>35.93543</v>
+        <v>41.50069</v>
       </c>
       <c r="H326" t="n">
-        <v>-78.88075000000001</v>
+        <v>-81.68411999999999</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Durham</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12717,21 +12717,21 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>35.46655</v>
+        <v>35.93543</v>
       </c>
       <c r="H327" t="n">
-        <v>-97.65373</v>
+        <v>-78.88075000000001</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12755,21 +12755,21 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>27.9755001068</v>
+        <v>35.46655</v>
       </c>
       <c r="H328" t="n">
-        <v>-82.533203125</v>
+        <v>-97.65373</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Anchorage, United States</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12793,47 +12793,85 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>61.158555</v>
+        <v>27.9755001068</v>
       </c>
       <c r="H329" t="n">
-        <v>-149.890208</v>
+        <v>-82.533203125</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
+          <t>ANC</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Anchorage, United States</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Anchorage</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>61.158555</v>
+      </c>
+      <c r="H330" t="n">
+        <v>-149.890208</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
           <t>YHZ</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Halifax, Canada</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
+      <c r="D331" t="inlineStr">
         <is>
           <t>Halifax</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="E331" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
+      <c r="F331" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="G330" t="n">
+      <c r="G331" t="n">
         <v>44.64601</v>
       </c>
-      <c r="H330" t="n">
+      <c r="H331" t="n">
         <v>-63.66844</v>
       </c>
     </row>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F332"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9100,44 +9100,44 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Agra, India</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>Agra</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9164,12 +9164,12 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9196,12 +9196,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Buffalo, NY</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9228,12 +9228,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9243,29 +9243,29 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Buffalo, NY</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9275,29 +9275,29 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9324,12 +9324,12 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9388,12 +9388,12 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9420,12 +9420,12 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9452,12 +9452,12 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Honolulu, HI</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Honolulu, HI</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9516,12 +9516,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9548,12 +9548,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Indianapolis, IN</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9580,12 +9580,12 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Kansas City, MO</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9612,12 +9612,12 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Kansas City, MO</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9644,12 +9644,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Memphis, TN</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9708,12 +9708,12 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9723,29 +9723,29 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis, TN</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9755,29 +9755,29 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Minneapolis, MN</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9804,12 +9804,12 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9819,29 +9819,29 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Montréal, QC</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9851,29 +9851,29 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal, QC</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Newark, NJ</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9900,12 +9900,12 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Norfolk, VA</t>
+          <t>Newark, NJ</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9932,12 +9932,12 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Norfolk, VA</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -9964,12 +9964,12 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9979,29 +9979,29 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10011,29 +10011,29 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10060,12 +10060,12 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10124,12 +10124,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10139,29 +10139,29 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Queretaro, MX</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10171,29 +10171,29 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Queretaro, MX</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10220,12 +10220,12 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10252,12 +10252,12 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10284,12 +10284,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10316,12 +10316,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10331,29 +10331,29 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Saskatoon, SK</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10363,29 +10363,29 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Saskatoon, SK</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, United States</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10412,12 +10412,12 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, SD, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>St. Louis, MO</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10444,12 +10444,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Tallahassee, FL</t>
+          <t>St. Louis, MO</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10476,12 +10476,12 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10491,29 +10491,29 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Tallahassee, FL</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10540,12 +10540,12 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Winnipeg, MB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10572,12 +10572,12 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10587,29 +10587,29 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg, MB</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -10619,29 +10619,29 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10651,29 +10651,29 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10732,12 +10732,12 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -10747,29 +10747,29 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10779,29 +10779,29 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10828,12 +10828,12 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10860,12 +10860,12 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Durham</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10892,12 +10892,12 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10924,12 +10924,12 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Anchorage, United States</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10956,30 +10956,62 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
+          <t>ANC</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Anchorage, United States</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Anchorage</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
           <t>YHZ</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Halifax, Canada</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
+      <c r="D333" t="inlineStr">
         <is>
           <t>Halifax</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
+      <c r="F333" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9132,44 +9132,44 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>CJB</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Coimbatore, India</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9196,12 +9196,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9228,12 +9228,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Buffalo, NY</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9260,12 +9260,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9275,29 +9275,29 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Buffalo, NY</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9307,29 +9307,29 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9388,12 +9388,12 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9420,12 +9420,12 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9452,12 +9452,12 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Honolulu, HI</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9516,12 +9516,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Honolulu, HI</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9548,12 +9548,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9580,12 +9580,12 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Indianapolis, IN</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9612,12 +9612,12 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Kansas City, MO</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9644,12 +9644,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Kansas City, MO</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9708,12 +9708,12 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Memphis, TN</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9740,12 +9740,12 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9755,29 +9755,29 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis, TN</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9787,29 +9787,29 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Minneapolis, MN</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9836,12 +9836,12 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9851,29 +9851,29 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Montréal, QC</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9883,29 +9883,29 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal, QC</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Newark, NJ</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9932,12 +9932,12 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Norfolk, VA</t>
+          <t>Newark, NJ</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -9964,12 +9964,12 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Norfolk, VA</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9996,12 +9996,12 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10011,29 +10011,29 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10043,29 +10043,29 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10124,12 +10124,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10156,12 +10156,12 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10171,29 +10171,29 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Queretaro, MX</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10203,29 +10203,29 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Queretaro, MX</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10252,12 +10252,12 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10284,12 +10284,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10316,12 +10316,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10348,12 +10348,12 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10363,29 +10363,29 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Saskatoon, SK</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10395,29 +10395,29 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Saskatoon, SK</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, United States</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10444,12 +10444,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, SD, United States</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>St. Louis, MO</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10476,12 +10476,12 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tallahassee, FL</t>
+          <t>St. Louis, MO</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10508,12 +10508,12 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10523,29 +10523,29 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Tallahassee, FL</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10572,12 +10572,12 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Winnipeg, MB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10604,12 +10604,12 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -10619,29 +10619,29 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg, MB</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10651,29 +10651,29 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10683,29 +10683,29 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10732,12 +10732,12 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10764,12 +10764,12 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10779,29 +10779,29 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10811,29 +10811,29 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10860,12 +10860,12 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10892,12 +10892,12 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Durham</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10924,12 +10924,12 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10956,12 +10956,12 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Anchorage, United States</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -10988,30 +10988,62 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
+          <t>ANC</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Anchorage, United States</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Anchorage</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
           <t>YHZ</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B334" t="inlineStr">
         <is>
           <t>Halifax, Canada</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
+      <c r="D334" t="inlineStr">
         <is>
           <t>Halifax</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E334" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
+      <c r="F334" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -628,12 +628,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,29 +675,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,29 +707,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>BE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Bucharest</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>RO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>HU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,29 +803,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chișinău</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>MD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,29 +835,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Copenhagen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,29 +867,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -916,12 +916,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,29 +931,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>DE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,29 +963,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Geneva</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,29 +995,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,29 +1027,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>DE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,29 +1059,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,29 +1123,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>TR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1155,29 +1155,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>UA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,29 +1187,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>PT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,29 +1219,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>GB</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,29 +1251,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1283,29 +1283,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,29 +1315,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1347,29 +1347,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1411,29 +1411,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,29 +1443,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Minsk</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1475,29 +1475,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>RU</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,29 +1507,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1539,29 +1539,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Nicosia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CY</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,29 +1571,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1603,25 +1603,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1631,29 +1635,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,29 +1667,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Latvia</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>LV</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,29 +1695,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Reykjavík</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,29 +1727,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>LV</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1759,29 +1759,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1791,29 +1791,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>RU</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>MLA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Santa Venera, Malta</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1823,29 +1823,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Santa Venera</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MT</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>SKP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Skopje, North Macedonia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1855,29 +1855,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>MK</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1887,29 +1887,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1919,29 +1919,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>SE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1951,29 +1951,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>DE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1983,29 +1983,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>EE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2015,29 +2015,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Tbilisi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>GE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2047,29 +2047,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2079,29 +2079,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Tirana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>AL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2111,29 +2111,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AT</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2143,29 +2143,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SKP</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Skopje, North Macedonia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2175,29 +2175,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>WRO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>Wroclaw, Poland</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2207,29 +2207,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>PL</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>WRO</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wroclaw, Poland</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2239,29 +2239,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>MLA</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Santa Venera, Malta</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Santa Venera</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
@@ -9164,12 +9164,12 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Albuquerque, NM, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>Albuquerque, NM</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9196,12 +9196,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ANC</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Anchorage, AK, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Anchorage, AK</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9228,12 +9228,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9260,12 +9260,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Buffalo, NY</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9292,12 +9292,12 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Austin, TX, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9307,29 +9307,29 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Bangor, ME, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Bangor, ME</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9388,12 +9388,12 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Buffalo, NY</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9420,12 +9420,12 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9435,29 +9435,29 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9516,12 +9516,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Cleveland, OH, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Honolulu, HI</t>
+          <t>Cleveland, OH</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9548,12 +9548,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9580,12 +9580,12 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9612,12 +9612,12 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9644,12 +9644,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Kansas City, MO</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Durham, NC, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Durham, NC</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9708,12 +9708,12 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9723,29 +9723,29 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>YHZ</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Halifax, Canada</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9755,29 +9755,29 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Memphis, TN</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9787,29 +9787,29 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Honolulu, HI</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9836,12 +9836,12 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Minneapolis, MN</t>
+          <t>Indianapolis, IN</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9868,12 +9868,12 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9883,29 +9883,29 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Montréal, QC</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Kansas City, MO</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9932,12 +9932,12 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9947,29 +9947,29 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Newark, NJ</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Norfolk, VA</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9996,12 +9996,12 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10028,12 +10028,12 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10043,29 +10043,29 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Memphis, TN</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10075,29 +10075,29 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10124,12 +10124,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10156,12 +10156,12 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10171,29 +10171,29 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Montréal, QC</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10203,29 +10203,29 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Queretaro, MX</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Newark, NJ</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10252,12 +10252,12 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Norfolk, VA</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10284,12 +10284,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Oklahoma City, OK, United States</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Oklahoma City, OK</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10316,12 +10316,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10348,12 +10348,12 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10363,29 +10363,29 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10395,29 +10395,29 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Saskatoon, SK</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10444,12 +10444,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10476,12 +10476,12 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>St. Louis, MO</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10508,12 +10508,12 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10523,29 +10523,29 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tallahassee, FL</t>
+          <t>Queretaro, MX</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -10555,29 +10555,29 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10587,29 +10587,29 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -10619,29 +10619,29 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Winnipeg, MB</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>San Antonio, TX, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10668,12 +10668,12 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10683,29 +10683,29 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>San Francisco, CA, United States</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10732,12 +10732,12 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10764,12 +10764,12 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10779,29 +10779,29 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Saskatoon, SK</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10811,29 +10811,29 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Sioux Falls, SD, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10860,12 +10860,12 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>St. Louis, MO</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10892,12 +10892,12 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Tallahassee, FL</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10924,12 +10924,12 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Tampa, FL, United States</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Tampa, FL</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10956,12 +10956,12 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10971,29 +10971,29 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Anchorage, United States</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11003,29 +11003,29 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>YHZ</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Halifax, Canada</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Winnipeg, MB</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F334"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8780,12 +8780,12 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>KCH</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Nanning, China</t>
+          <t>Kuching, Malaysia</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8795,29 +8795,29 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Nanning</t>
+          <t>Kuching</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MY</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>AKX</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kuching, Malaysia</t>
+          <t>Aktobe, Kazakhstan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8827,29 +8827,29 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Kuching</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>KZ</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>AKX</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Aktobe, Kazakhstan</t>
+          <t>Tongren, China</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8859,29 +8859,29 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Tongren</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>HYN</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tongren, China</t>
+          <t>Taizhou, China</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Tongren</t>
+          <t>Taizhou</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8908,12 +8908,12 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>HYN</t>
+          <t>XNN</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Taizhou, China</t>
+          <t>Xining, China</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Taizhou</t>
+          <t>Xining</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -8940,12 +8940,12 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>XNN</t>
+          <t>FRU</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Xining, China</t>
+          <t>Bishkek, Kyrgyzstan</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8955,29 +8955,29 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Xining</t>
+          <t>Bishkek</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>FRU</t>
+          <t>MLG</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Bishkek, Kyrgyzstan</t>
+          <t>Malang, Indonesia</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8987,29 +8987,29 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Malang</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>MLG</t>
+          <t>LHE</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Malang, Indonesia</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9019,29 +9019,29 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Malang</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>LHE</t>
+          <t>CTU</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Chengdu, China</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9051,29 +9051,29 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Chengdu</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>CTU</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chengdu, China</t>
+          <t>Agra, India</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9083,29 +9083,29 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Chengdu</t>
+          <t>Agra</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>CJB</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Agra, India</t>
+          <t>Coimbatore, India</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Agra</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9132,44 +9132,44 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>CJB</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coimbatore, India</t>
+          <t>Albuquerque, NM, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Albuquerque, NM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>ANC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Albuquerque, NM, United States</t>
+          <t>Anchorage, AK, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Albuquerque, NM</t>
+          <t>Anchorage, AK</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9196,12 +9196,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Anchorage, AK, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Anchorage, AK</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9228,12 +9228,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9260,12 +9260,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Austin, TX, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9292,12 +9292,12 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Austin, TX, United States</t>
+          <t>Bangor, ME, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>Bangor, ME</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9324,12 +9324,12 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Bangor, ME, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Bangor, ME</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Buffalo, NY</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9388,12 +9388,12 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9403,29 +9403,29 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Buffalo, NY</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9435,29 +9435,29 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Cleveland, OH, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Cleveland, OH</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9516,12 +9516,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cleveland, OH, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Cleveland, OH</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9548,12 +9548,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9580,12 +9580,12 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9612,12 +9612,12 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9644,12 +9644,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Durham, NC, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Durham, NC</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Durham, NC, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9691,29 +9691,29 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Durham, NC</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>YHZ</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Halifax, Canada</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9723,29 +9723,29 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>YHZ</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Halifax, Canada</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9755,29 +9755,29 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Honolulu, HI</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Honolulu, HI</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9804,12 +9804,12 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Indianapolis, IN</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9836,12 +9836,12 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9868,12 +9868,12 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Kansas City, MO</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9900,12 +9900,12 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9915,29 +9915,29 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Kansas City, MO</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9947,29 +9947,29 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9996,12 +9996,12 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Memphis, TN</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10028,12 +10028,12 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10043,29 +10043,29 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Memphis, TN</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10075,29 +10075,29 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10124,12 +10124,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10139,29 +10139,29 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Minneapolis, MN</t>
+          <t>Montréal, QC</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10171,29 +10171,29 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Montréal, QC</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Newark, NJ</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10220,12 +10220,12 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Newark, NJ</t>
+          <t>Norfolk, VA</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10252,12 +10252,12 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Oklahoma City, OK, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Norfolk, VA</t>
+          <t>Oklahoma City, OK</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10284,12 +10284,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK, United States</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10316,12 +10316,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10331,29 +10331,29 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10363,29 +10363,29 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10412,12 +10412,12 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10444,12 +10444,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10476,12 +10476,12 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10491,29 +10491,29 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Queretaro, MX</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10523,29 +10523,29 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Queretaro, MX</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10572,12 +10572,12 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10604,12 +10604,12 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>San Antonio, TX, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10636,12 +10636,12 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>San Antonio, TX, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10668,12 +10668,12 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>San Francisco, CA, United States</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Francisco, CA, United States</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10732,12 +10732,12 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -10747,29 +10747,29 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Saskatoon, SK</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10779,29 +10779,29 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Saskatoon, SK</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Sioux Falls, SD, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10828,12 +10828,12 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>St. Louis, MO</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10860,12 +10860,12 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>St. Louis, MO</t>
+          <t>Tallahassee, FL</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10892,12 +10892,12 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>Tampa, FL, United States</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tallahassee, FL</t>
+          <t>Tampa, FL</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10924,12 +10924,12 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tampa, FL, United States</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10939,29 +10939,29 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Tampa, FL</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -10988,12 +10988,12 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Winnipeg, MB</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11012,38 +11012,6 @@
         </is>
       </c>
       <c r="F333" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>YWG</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Winnipeg, MB, Canada</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Winnipeg, MB</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Santa Venera, Malta</t>
+          <t>Valletta, Malta</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Santa Venera</t>
+          <t>Valletta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8908,12 +8908,12 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>XNN</t>
+          <t>FRU</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Xining, China</t>
+          <t>Bishkek, Kyrgyzstan</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -8923,29 +8923,29 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Xining</t>
+          <t>Bishkek</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>FRU</t>
+          <t>MLG</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Bishkek, Kyrgyzstan</t>
+          <t>Malang, Indonesia</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8955,29 +8955,29 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Malang</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>MLG</t>
+          <t>LHE</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Malang, Indonesia</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8987,29 +8987,29 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Malang</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>LHE</t>
+          <t>CTU</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Chengdu, China</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9019,29 +9019,29 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Chengdu</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>CTU</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chengdu, China</t>
+          <t>Agra, India</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9051,29 +9051,29 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Chengdu</t>
+          <t>Agra</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>CJB</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Agra, India</t>
+          <t>Coimbatore, India</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Agra</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9100,44 +9100,44 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>CJB</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coimbatore, India</t>
+          <t>Albuquerque, NM, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Albuquerque, NM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>ANC</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Albuquerque, NM, United States</t>
+          <t>Anchorage, AK, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Albuquerque, NM</t>
+          <t>Anchorage, AK</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9164,12 +9164,12 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Anchorage, AK, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Anchorage, AK</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9196,12 +9196,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9228,12 +9228,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Austin, TX, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9260,12 +9260,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Austin, TX, United States</t>
+          <t>Bangor, ME, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>Bangor, ME</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9292,12 +9292,12 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Bangor, ME, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Bangor, ME</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9324,12 +9324,12 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Buffalo, NY</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9371,29 +9371,29 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Buffalo, NY</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9403,29 +9403,29 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9452,12 +9452,12 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Cleveland, OH, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Cleveland, OH</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cleveland, OH, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Cleveland, OH</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9516,12 +9516,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9548,12 +9548,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9580,12 +9580,12 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9612,12 +9612,12 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Durham, NC, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Durham, NC</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9644,12 +9644,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Durham, NC, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9659,29 +9659,29 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Durham, NC</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>YHZ</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Halifax, Canada</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9691,29 +9691,29 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>YHZ</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Halifax, Canada</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9723,29 +9723,29 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Honolulu, HI</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Honolulu, HI</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9772,12 +9772,12 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Indianapolis, IN</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9804,12 +9804,12 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9836,12 +9836,12 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Kansas City, MO</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9868,12 +9868,12 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9883,29 +9883,29 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Kansas City, MO</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9915,29 +9915,29 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -9964,12 +9964,12 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Memphis, TN</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9996,12 +9996,12 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10011,29 +10011,29 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Memphis, TN</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10043,29 +10043,29 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10107,29 +10107,29 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Minneapolis, MN</t>
+          <t>Montréal, QC</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10139,29 +10139,29 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Montréal, QC</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Newark, NJ</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10188,12 +10188,12 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Newark, NJ</t>
+          <t>Norfolk, VA</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10220,12 +10220,12 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Oklahoma City, OK, United States</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Norfolk, VA</t>
+          <t>Oklahoma City, OK</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10252,12 +10252,12 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK, United States</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10284,12 +10284,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10299,29 +10299,29 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10331,29 +10331,29 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10380,12 +10380,12 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10412,12 +10412,12 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10444,12 +10444,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10459,29 +10459,29 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Queretaro, MX</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10491,29 +10491,29 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Queretaro, MX</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10540,12 +10540,12 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10572,12 +10572,12 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>San Antonio, TX, United States</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10604,12 +10604,12 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>San Antonio, TX, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10636,12 +10636,12 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>San Francisco, CA, United States</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10668,12 +10668,12 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Francisco, CA, United States</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10715,29 +10715,29 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Saskatoon, SK</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -10747,29 +10747,29 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Saskatoon, SK</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Sioux Falls, SD, United States</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10796,12 +10796,12 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>St. Louis, MO</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10828,12 +10828,12 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>St. Louis, MO</t>
+          <t>Tallahassee, FL</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10860,12 +10860,12 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>Tampa, FL, United States</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tallahassee, FL</t>
+          <t>Tampa, FL</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10892,12 +10892,12 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tampa, FL, United States</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10907,29 +10907,29 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tampa, FL</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10956,12 +10956,12 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Winnipeg, MB</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -10980,38 +10980,6 @@
         </is>
       </c>
       <c r="F332" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>YWG</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Winnipeg, MB, Canada</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>Winnipeg, MB</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
